--- a/biology/Médecine/1338_en_santé_et_médecine/1338_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1338_en_santé_et_médecine/1338_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1338_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1338_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1338 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1338_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1338_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hospice Saint-Antoine-le-Grand (S. Antonio abate) de Cagliari, consacré à l'accueil des malades affectés de troubles mentaux[1].
-En Italie, les apothicaires sont regroupés à Gubbio dans la même corporation que les médecins, comme c'est le cas depuis 1293 à Florence ou 1306 à Viterbe, alors qu'ils restent associés dans un même art aux fromagers à Plaisance ou aux lardiers à Reggio[2].
-Fondation d'une léproserie à Florence en Italie ; vers 1428, cet établissement n'accueille plus que sept malades ; un siècle plus tard, ce nombre se réduit à deux[3].
-À la demande du pape Benoît XII qui veut réformer l'ordre de Saint-Jean de Jérusalem, les commandeurs de Trinquetaille et de Claret visitent trente-trois des commanderies qui dépendent du prieuré de Saint-Gilles, et le procès-verbal de leur enquête[4] semble montrer que les frères manquent à leurs vœux premiers de charité, d'hospitalité et d'assistance[5].
-1338-1339 : fondation à Rome, par le cardinal Giovanni Colonna, de l'hôpital Saint-Jacques qui, au XVe siècle, prendra le nom d'hôpital des Incurables (Ospedale di San Giacomo degli Incurabili[6]).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hospice Saint-Antoine-le-Grand (S. Antonio abate) de Cagliari, consacré à l'accueil des malades affectés de troubles mentaux.
+En Italie, les apothicaires sont regroupés à Gubbio dans la même corporation que les médecins, comme c'est le cas depuis 1293 à Florence ou 1306 à Viterbe, alors qu'ils restent associés dans un même art aux fromagers à Plaisance ou aux lardiers à Reggio.
+Fondation d'une léproserie à Florence en Italie ; vers 1428, cet établissement n'accueille plus que sept malades ; un siècle plus tard, ce nombre se réduit à deux.
+À la demande du pape Benoît XII qui veut réformer l'ordre de Saint-Jean de Jérusalem, les commandeurs de Trinquetaille et de Claret visitent trente-trois des commanderies qui dépendent du prieuré de Saint-Gilles, et le procès-verbal de leur enquête semble montrer que les frères manquent à leurs vœux premiers de charité, d'hospitalité et d'assistance.
+1338-1339 : fondation à Rome, par le cardinal Giovanni Colonna, de l'hôpital Saint-Jacques qui, au XVe siècle, prendra le nom d'hôpital des Incurables (Ospedale di San Giacomo degli Incurabili).</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1338_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1338_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">30 novembre, Barnabas de Reggio, médecin italien (mort vers 1365), achève son traité de diététique « sur la nature et les propriétés des aliments » (Compendium de naturis et proprietatibus alimentorum[7]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 novembre, Barnabas de Reggio, médecin italien (mort vers 1365), achève son traité de diététique « sur la nature et les propriétés des aliments » (Compendium de naturis et proprietatibus alimentorum).
 </t>
         </is>
       </c>
